--- a/results/I3_N5_M2_T45_C150_DepCentral_s3_P3_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s3_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>461.6407969774161</v>
+        <v>1570.204899660161</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.33079697741608</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.933901838848737</v>
+        <v>14.53978881378947</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.933901838848737</v>
+        <v>4.889836398081229</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>370.02</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,9 +609,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -656,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -802,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -813,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -824,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -885,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>33.10555953090582</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.10555953090582</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>40.92773953394845</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30.33301651610694</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>15.33301651610694</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>32.95784031971738</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.99539592898705</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -993,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1007,15 +1029,183 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1118,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>105.41</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8">
@@ -1129,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>91.01999999999948</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9">
@@ -1140,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.99</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10">
@@ -1151,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>94.90000000000001</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>98.595</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
@@ -1173,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>191.1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -1184,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>187.88</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -1195,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>186.12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -1206,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>184.775</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>185.135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
@@ -1228,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18">
@@ -1239,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19">
@@ -1250,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20">
@@ -1261,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21">
@@ -1272,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22">
@@ -1283,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>113.295000000001</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1294,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>121.65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1305,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>123.55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1316,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>125.910000000001</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1327,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>126.085000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1338,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>45.97500000000073</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1349,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>45.44500000000073</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1360,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>42.36000000000072</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>55.32000000000073</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1382,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>51.5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1393,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>113.295000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1404,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>121.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1415,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>123.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1426,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>125.910000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1437,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>126.085000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1448,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>191.1</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38">
@@ -1459,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>187.88</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
@@ -1470,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>186.12</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40">
@@ -1481,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>184.775</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
@@ -1492,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>185.135</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -1594,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>41.1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8">
@@ -1605,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>37.88</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9">
@@ -1616,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>36.12</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
@@ -1627,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>34.775</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -1638,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>35.135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1806,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1817,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1828,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1839,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1861,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1872,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1883,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1894,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1905,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1916,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1927,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1938,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1949,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1990,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2001,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2012,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2023,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2034,12 +2224,122 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
